--- a/FAIO-2_BOM.xlsx
+++ b/FAIO-2_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\FAIO-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9937C718-E1CC-4AA4-BB84-29E960F7BF88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE224DD-4FF4-4FE7-B701-30F6216ABFDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="A1:H7"/>
+      <selection activeCell="A10" sqref="A10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1318,20 +1318,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
-        <v>2772</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
+        <v>2771</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>19.95</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1523,8 +1523,8 @@
     <hyperlink ref="H4" r:id="rId2" xr:uid="{1F568088-B2D8-4C98-8A5C-0ED7121636CE}"/>
     <hyperlink ref="H6" r:id="rId3" xr:uid="{6B8DF80A-B880-449A-8EF1-79B4EBB20C84}"/>
     <hyperlink ref="H5" r:id="rId4" xr:uid="{14FEEA72-2A6D-451C-8B70-A091F84A067C}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{05F19366-D9D2-404B-A468-7F26BB4F3EA1}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{54F1C1C9-22C9-4C0A-BA29-28E2F3AF5A8C}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{54F1C1C9-22C9-4C0A-BA29-28E2F3AF5A8C}"/>
+    <hyperlink ref="H2" r:id="rId6" xr:uid="{EA0B6A2B-DA19-490D-8B0D-46E9302BE8BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
